--- a/resources/usa_food_loss_data.xlsx
+++ b/resources/usa_food_loss_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addisonrbrown/Documents/Final_Project/food_waste/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshenelle/Desktop/food_waste/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707D3F83-82C4-F943-B2EB-17419112C830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D1AFF8-4187-474D-95B2-E9E3E27FA477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16120" xr2:uid="{15F77FAB-9CE3-DB4B-8CF0-306E2ED4860E}"/>
+    <workbookView xWindow="4720" yWindow="1440" windowWidth="27640" windowHeight="16120" xr2:uid="{15F77FAB-9CE3-DB4B-8CF0-306E2ED4860E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="65">
   <si>
     <t>United States of America</t>
   </si>
@@ -123,6 +123,111 @@
   </si>
   <si>
     <t>Nass Potatoes Sept 2002</t>
+  </si>
+  <si>
+    <t>geographicaream49</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>measureditemcpc</t>
+  </si>
+  <si>
+    <t>crop</t>
+  </si>
+  <si>
+    <t>timepointyears</t>
+  </si>
+  <si>
+    <t>loss_per_clean</t>
+  </si>
+  <si>
+    <t>percentage_loss_of_quantity</t>
+  </si>
+  <si>
+    <t>loss_quantity</t>
+  </si>
+  <si>
+    <t>loss_qualitiative</t>
+  </si>
+  <si>
+    <t>loss_monetary</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>fsc_location1</t>
+  </si>
+  <si>
+    <t>periodofstorage</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>causeofloss</t>
+  </si>
+  <si>
+    <t>samplesize</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>method_datacollection</t>
+  </si>
+  <si>
+    <t>tag_datacollection</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Sweetners</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>estimated national annual average retail prices using Nielsen Homescan data for each food consumed at home in 2008. This method for determining average prices was also used in previous research (Buzby et al., 2011; Reed et al., 2004; Stewart et al., 2011). Members of the Homescan consumer panel in 61,440 households reported the foods they purchased, the quantities they bought, and the prices they paid. Uses the ERSs Loss-Adjusted Food Availability data</t>
+  </si>
+  <si>
+    <t>Estimated the amount of food loss at both the retail and consumer level in 2008 for each food in the LAFA data, combined with scanner data</t>
+  </si>
+  <si>
+    <t>Modelled</t>
+  </si>
+  <si>
+    <t>Buzby and Hyman</t>
+  </si>
+  <si>
+    <t>http://ac.els-cdn.com/S0306919212000693/1-s2.0-S0306919212000693-main.pdf?_tid=c0f06a20-b878-11e6-8c5e-00000aab0f26&amp;acdnat=1480674125_7a87adb11c23b174482e352a2f62d41f</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Fluid Milk</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Meat Of Chickens, Fresh Or Chilled</t>
   </si>
 </sst>
 </file>
@@ -474,953 +579,1121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099505B5-682B-3040-AEDB-A7482577E21C}">
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1">
-        <v>840</v>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>840</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1510</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2010</v>
+      </c>
+      <c r="G2">
+        <v>6.0083000000000002</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>840</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1510</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2010</v>
+      </c>
+      <c r="G3">
+        <v>6.0523999999999996</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>840</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1371</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F1">
-        <v>2010</v>
-      </c>
-      <c r="G1">
-        <v>4.2196999999999996</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
-        <v>840</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="F4">
+        <v>2010</v>
+      </c>
+      <c r="G4">
+        <v>3.4428999999999998</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>840</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1374</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>2010</v>
-      </c>
-      <c r="G2">
-        <v>3.5038</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3">
-        <v>840</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="F5">
+        <v>2010</v>
+      </c>
+      <c r="G5">
+        <v>2.2046000000000001</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>840</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>1376</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>2010</v>
-      </c>
-      <c r="G3">
-        <v>0.2122</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
-        <v>840</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="F6">
+        <v>2010</v>
+      </c>
+      <c r="G6">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>840</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>1443</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F4">
-        <v>2010</v>
-      </c>
-      <c r="G4">
-        <v>1.079</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5">
-        <v>840</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="F7">
+        <v>2010</v>
+      </c>
+      <c r="G7">
+        <v>1.1958</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>840</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>1510</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>2010</v>
-      </c>
-      <c r="G5">
-        <v>1.1989000000000001</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
-        <v>840</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="F8">
+        <v>2010</v>
+      </c>
+      <c r="G8">
+        <v>6.0303000000000004</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>840</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>1701</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>2010</v>
-      </c>
-      <c r="G6">
-        <v>3.4700000000000002E-2</v>
-      </c>
-      <c r="M6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7">
-        <v>840</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="F9">
+        <v>2010</v>
+      </c>
+      <c r="G9">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>840</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>231</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
-        <v>2010</v>
-      </c>
-      <c r="G7">
-        <v>2.0232000000000001</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
-        <v>840</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="F10">
+        <v>2010</v>
+      </c>
+      <c r="G10">
+        <v>2.0249000000000001</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>840</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>1809</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>2010</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>840</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>1809</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>2010</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>840</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>2211</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13">
+        <v>2010</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>840</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>2211</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14">
+        <v>2010</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>840</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>231</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <v>2010</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>840</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>231</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>2010</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" t="s">
+        <v>58</v>
+      </c>
+      <c r="V16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>840</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>21111.01</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <v>2010</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>840</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>21111.01</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18">
+        <v>2010</v>
+      </c>
+      <c r="G18">
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <v>34</v>
+      </c>
+      <c r="M18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" t="s">
+        <v>58</v>
+      </c>
+      <c r="V18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>840</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>21121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19">
+        <v>2010</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>840</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>21121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20">
+        <v>2010</v>
+      </c>
+      <c r="G20">
+        <v>37</v>
+      </c>
+      <c r="H20">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" t="s">
+        <v>56</v>
+      </c>
+      <c r="T20" t="s">
+        <v>57</v>
+      </c>
+      <c r="U20" t="s">
+        <v>58</v>
+      </c>
+      <c r="V20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>840</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>1371</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E21" t="s">
         <v>4</v>
       </c>
-      <c r="F8">
-        <v>2009</v>
-      </c>
-      <c r="G8">
-        <v>4.9080000000000004</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9">
-        <v>840</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="F21">
+        <v>2010</v>
+      </c>
+      <c r="G21">
+        <v>3.6615000000000002</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>840</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>1374</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E22" t="s">
         <v>5</v>
       </c>
-      <c r="F9">
-        <v>2009</v>
-      </c>
-      <c r="G9">
-        <v>2.0872999999999999</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
-        <v>840</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="F22">
+        <v>2010</v>
+      </c>
+      <c r="G22">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="M22" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>840</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>1376</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E23" t="s">
         <v>6</v>
       </c>
-      <c r="F10">
-        <v>2009</v>
-      </c>
-      <c r="G10">
-        <v>0.2447</v>
-      </c>
-      <c r="M10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
-        <v>840</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="F23">
+        <v>2010</v>
+      </c>
+      <c r="G23">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>840</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>1443</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="F11">
-        <v>2009</v>
-      </c>
-      <c r="G11">
-        <v>1.8042</v>
-      </c>
-      <c r="M11" t="s">
-        <v>2</v>
-      </c>
-      <c r="T11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
-        <v>840</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="F24">
+        <v>2010</v>
+      </c>
+      <c r="G24">
+        <v>1.1041000000000001</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>840</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>1510</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E25" t="s">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>2009</v>
-      </c>
-      <c r="G12">
-        <v>6.7270000000000003</v>
-      </c>
-      <c r="M12" t="s">
-        <v>2</v>
-      </c>
-      <c r="T12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
-        <v>840</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="F25">
+        <v>2010</v>
+      </c>
+      <c r="G25">
+        <v>5.9836999999999998</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>840</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>1701</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="F13">
-        <v>2009</v>
-      </c>
-      <c r="G13">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2</v>
-      </c>
-      <c r="T13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
-        <v>840</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="F26">
+        <v>2010</v>
+      </c>
+      <c r="G26">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>840</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>231</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F14">
-        <v>2009</v>
-      </c>
-      <c r="G14">
-        <v>2.0468999999999999</v>
-      </c>
-      <c r="M14" t="s">
-        <v>2</v>
-      </c>
-      <c r="T14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15">
-        <v>840</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="F27">
+        <v>2010</v>
+      </c>
+      <c r="G27">
+        <v>2.0217999999999998</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28">
+        <v>840</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>1371</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>2008</v>
-      </c>
-      <c r="G15">
-        <v>4.2455999999999996</v>
-      </c>
-      <c r="M15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16">
-        <v>840</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="F28">
+        <v>2010</v>
+      </c>
+      <c r="G28">
+        <v>3.4089999999999998</v>
+      </c>
+      <c r="M28" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29">
+        <v>840</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>1374</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E29" t="s">
         <v>5</v>
       </c>
-      <c r="F16">
-        <v>2008</v>
-      </c>
-      <c r="G16">
-        <v>3.0657999999999999</v>
-      </c>
-      <c r="M16" t="s">
-        <v>2</v>
-      </c>
-      <c r="T16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17">
-        <v>840</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="F29">
+        <v>2010</v>
+      </c>
+      <c r="G29">
+        <v>2.5482</v>
+      </c>
+      <c r="M29" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>840</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>1376</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E30" t="s">
         <v>6</v>
       </c>
-      <c r="F17">
-        <v>2008</v>
-      </c>
-      <c r="G17">
-        <v>0.2452</v>
-      </c>
-      <c r="M17" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18">
-        <v>840</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="F30">
+        <v>2010</v>
+      </c>
+      <c r="G30">
+        <v>0.2319</v>
+      </c>
+      <c r="M30" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31">
+        <v>840</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>1443</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E31" t="s">
         <v>7</v>
       </c>
-      <c r="F18">
-        <v>2008</v>
-      </c>
-      <c r="G18">
-        <v>1.8304</v>
-      </c>
-      <c r="M18" t="s">
-        <v>2</v>
-      </c>
-      <c r="T18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19">
-        <v>840</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="F31">
+        <v>2010</v>
+      </c>
+      <c r="G31">
+        <v>1.7282</v>
+      </c>
+      <c r="M31" t="s">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32">
+        <v>840</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>1510</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E32" t="s">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>2008</v>
-      </c>
-      <c r="G19">
-        <v>7.0114000000000001</v>
-      </c>
-      <c r="M19" t="s">
-        <v>2</v>
-      </c>
-      <c r="T19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
-        <v>840</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20">
+      <c r="F32">
+        <v>2010</v>
+      </c>
+      <c r="G32">
+        <v>6.4541000000000004</v>
+      </c>
+      <c r="M32" t="s">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33">
+        <v>840</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>1701</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E33" t="s">
         <v>8</v>
       </c>
-      <c r="F20">
-        <v>2008</v>
-      </c>
-      <c r="G20">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="M20" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21">
-        <v>840</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="F33">
+        <v>2010</v>
+      </c>
+      <c r="G33">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34">
+        <v>840</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>231</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E34" t="s">
         <v>9</v>
       </c>
-      <c r="F21">
-        <v>2008</v>
-      </c>
-      <c r="G21">
-        <v>2.0583999999999998</v>
-      </c>
-      <c r="M21" t="s">
-        <v>2</v>
-      </c>
-      <c r="T21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22">
-        <v>840</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>1371</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22">
-        <v>2007</v>
-      </c>
-      <c r="G22">
-        <v>2.59</v>
-      </c>
-      <c r="H22">
-        <v>2.5880122019999998</v>
-      </c>
-      <c r="M22" t="s">
-        <v>2</v>
-      </c>
-      <c r="S22" t="s">
-        <v>12</v>
-      </c>
-      <c r="T22" t="s">
-        <v>13</v>
-      </c>
-      <c r="U22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23">
-        <v>840</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>1374</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>2007</v>
-      </c>
-      <c r="G23">
-        <v>2.65</v>
-      </c>
-      <c r="H23">
-        <v>2.6513346040000001</v>
-      </c>
-      <c r="M23" t="s">
-        <v>2</v>
-      </c>
-      <c r="S23" t="s">
-        <v>15</v>
-      </c>
-      <c r="T23" t="s">
-        <v>13</v>
-      </c>
-      <c r="U23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24">
-        <v>840</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>1510</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24">
-        <v>2007</v>
-      </c>
-      <c r="G24">
-        <v>6.54</v>
-      </c>
-      <c r="H24">
-        <v>6.5402519589999999</v>
-      </c>
-      <c r="M24" t="s">
-        <v>2</v>
-      </c>
-      <c r="S24" t="s">
-        <v>17</v>
-      </c>
-      <c r="T24" t="s">
-        <v>13</v>
-      </c>
-      <c r="U24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25">
-        <v>840</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1371</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>2007</v>
-      </c>
-      <c r="G25">
-        <v>4.9786000000000001</v>
-      </c>
-      <c r="M25" t="s">
-        <v>2</v>
-      </c>
-      <c r="T25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26">
-        <v>840</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1374</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>2007</v>
-      </c>
-      <c r="G26">
-        <v>2.6513</v>
-      </c>
-      <c r="M26" t="s">
-        <v>2</v>
-      </c>
-      <c r="T26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27">
-        <v>840</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1376</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>2007</v>
-      </c>
-      <c r="G27">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="M27" t="s">
-        <v>2</v>
-      </c>
-      <c r="T27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28">
-        <v>840</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1443</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28">
-        <v>2007</v>
-      </c>
-      <c r="G28">
-        <v>1.8474999999999999</v>
-      </c>
-      <c r="M28" t="s">
-        <v>2</v>
-      </c>
-      <c r="T28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29">
-        <v>840</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1510</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>2007</v>
-      </c>
-      <c r="G29">
-        <v>6.5403000000000002</v>
-      </c>
-      <c r="M29" t="s">
-        <v>2</v>
-      </c>
-      <c r="T29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30">
-        <v>840</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>1701</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <v>2007</v>
-      </c>
-      <c r="G30">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="M30" t="s">
-        <v>2</v>
-      </c>
-      <c r="T30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31">
-        <v>840</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>231</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31">
-        <v>2007</v>
-      </c>
-      <c r="G31">
-        <v>2.0388999999999999</v>
-      </c>
-      <c r="M31" t="s">
-        <v>2</v>
-      </c>
-      <c r="T31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32">
-        <v>840</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>1371</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32">
-        <v>2006</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>2.999535533</v>
-      </c>
-      <c r="M32" t="s">
-        <v>2</v>
-      </c>
-      <c r="S32" t="s">
-        <v>12</v>
-      </c>
-      <c r="T32" t="s">
-        <v>13</v>
-      </c>
-      <c r="U32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33">
-        <v>840</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>1374</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33">
-        <v>2006</v>
-      </c>
-      <c r="G33">
-        <v>2.04</v>
-      </c>
-      <c r="H33">
-        <v>2.0432853880000001</v>
-      </c>
-      <c r="M33" t="s">
-        <v>2</v>
-      </c>
-      <c r="S33" t="s">
-        <v>15</v>
-      </c>
-      <c r="T33" t="s">
-        <v>13</v>
-      </c>
-      <c r="U33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34">
-        <v>840</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>1510</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
       <c r="F34">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="G34">
-        <v>6.77</v>
-      </c>
-      <c r="H34">
-        <v>6.7737803679999997</v>
+        <v>2.0091000000000001</v>
       </c>
       <c r="M34" t="s">
         <v>2</v>
       </c>
-      <c r="S34" t="s">
-        <v>17</v>
-      </c>
       <c r="T34" t="s">
-        <v>13</v>
-      </c>
-      <c r="U34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>840</v>
       </c>
@@ -1434,10 +1707,10 @@
         <v>4</v>
       </c>
       <c r="F35">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="G35">
-        <v>2.9994999999999998</v>
+        <v>4.2196999999999996</v>
       </c>
       <c r="M35" t="s">
         <v>2</v>
@@ -1446,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>840</v>
       </c>
@@ -1460,10 +1733,10 @@
         <v>5</v>
       </c>
       <c r="F36">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="G36">
-        <v>2.0432999999999999</v>
+        <v>3.5038</v>
       </c>
       <c r="M36" t="s">
         <v>2</v>
@@ -1472,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>840</v>
       </c>
@@ -1486,10 +1759,10 @@
         <v>6</v>
       </c>
       <c r="F37">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="G37">
-        <v>0.30549999999999999</v>
+        <v>0.2122</v>
       </c>
       <c r="M37" t="s">
         <v>2</v>
@@ -1498,7 +1771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>840</v>
       </c>
@@ -1512,10 +1785,10 @@
         <v>7</v>
       </c>
       <c r="F38">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="G38">
-        <v>1.8958999999999999</v>
+        <v>1.079</v>
       </c>
       <c r="M38" t="s">
         <v>2</v>
@@ -1524,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>840</v>
       </c>
@@ -1538,10 +1811,10 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="G39">
-        <v>6.7737999999999996</v>
+        <v>1.1989000000000001</v>
       </c>
       <c r="M39" t="s">
         <v>2</v>
@@ -1550,7 +1823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>840</v>
       </c>
@@ -1564,10 +1837,10 @@
         <v>8</v>
       </c>
       <c r="F40">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>4.5600000000000002E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="M40" t="s">
         <v>2</v>
@@ -1576,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>840</v>
       </c>
@@ -1590,10 +1863,10 @@
         <v>9</v>
       </c>
       <c r="F41">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="G41">
-        <v>2.0234999999999999</v>
+        <v>2.0232000000000001</v>
       </c>
       <c r="M41" t="s">
         <v>2</v>
@@ -1602,7 +1875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>840</v>
       </c>
@@ -1616,10 +1889,10 @@
         <v>4</v>
       </c>
       <c r="F42">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="G42">
-        <v>3.9236</v>
+        <v>4.9080000000000004</v>
       </c>
       <c r="M42" t="s">
         <v>2</v>
@@ -1628,7 +1901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>840</v>
       </c>
@@ -1642,10 +1915,10 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="G43">
-        <v>3.5546000000000002</v>
+        <v>2.0872999999999999</v>
       </c>
       <c r="M43" t="s">
         <v>2</v>
@@ -1654,7 +1927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>840</v>
       </c>
@@ -1668,10 +1941,10 @@
         <v>6</v>
       </c>
       <c r="F44">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="G44">
-        <v>0.31359999999999999</v>
+        <v>0.2447</v>
       </c>
       <c r="M44" t="s">
         <v>2</v>
@@ -1680,7 +1953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>840</v>
       </c>
@@ -1694,10 +1967,10 @@
         <v>7</v>
       </c>
       <c r="F45">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="G45">
-        <v>1.6701999999999999</v>
+        <v>1.8042</v>
       </c>
       <c r="M45" t="s">
         <v>2</v>
@@ -1706,7 +1979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>840</v>
       </c>
@@ -1720,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="G46">
-        <v>6.742</v>
+        <v>6.7270000000000003</v>
       </c>
       <c r="M46" t="s">
         <v>2</v>
@@ -1732,7 +2005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>840</v>
       </c>
@@ -1746,10 +2019,10 @@
         <v>8</v>
       </c>
       <c r="F47">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="G47">
-        <v>4.1500000000000002E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="M47" t="s">
         <v>2</v>
@@ -1758,7 +2031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>840</v>
       </c>
@@ -1772,10 +2045,10 @@
         <v>9</v>
       </c>
       <c r="F48">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="G48">
-        <v>2.0560999999999998</v>
+        <v>2.0468999999999999</v>
       </c>
       <c r="M48" t="s">
         <v>2</v>
@@ -1798,10 +2071,10 @@
         <v>4</v>
       </c>
       <c r="F49">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="G49">
-        <v>3.8422999999999998</v>
+        <v>4.2455999999999996</v>
       </c>
       <c r="M49" t="s">
         <v>2</v>
@@ -1824,10 +2097,10 @@
         <v>5</v>
       </c>
       <c r="F50">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="G50">
-        <v>4.5269000000000004</v>
+        <v>3.0657999999999999</v>
       </c>
       <c r="M50" t="s">
         <v>2</v>
@@ -1850,10 +2123,10 @@
         <v>6</v>
       </c>
       <c r="F51">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="G51">
-        <v>0.33410000000000001</v>
+        <v>0.2452</v>
       </c>
       <c r="M51" t="s">
         <v>2</v>
@@ -1876,10 +2149,10 @@
         <v>7</v>
       </c>
       <c r="F52">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="G52">
-        <v>1.6326000000000001</v>
+        <v>1.8304</v>
       </c>
       <c r="M52" t="s">
         <v>2</v>
@@ -1902,10 +2175,10 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="G53">
-        <v>8.2225000000000001</v>
+        <v>7.0114000000000001</v>
       </c>
       <c r="M53" t="s">
         <v>2</v>
@@ -1928,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="F54">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="G54">
-        <v>6.2100000000000002E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="M54" t="s">
         <v>2</v>
@@ -1954,10 +2227,10 @@
         <v>9</v>
       </c>
       <c r="F55">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="G55">
-        <v>2.0821999999999998</v>
+        <v>2.0583999999999998</v>
       </c>
       <c r="M55" t="s">
         <v>2</v>
@@ -1974,25 +2247,25 @@
         <v>10</v>
       </c>
       <c r="D56">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F56">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="G56">
-        <v>0.06</v>
+        <v>2.59</v>
       </c>
       <c r="H56">
-        <v>5.8173357000000002E-2</v>
+        <v>2.5880122019999998</v>
       </c>
       <c r="M56" t="s">
         <v>2</v>
       </c>
       <c r="S56" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T56" t="s">
         <v>13</v>
@@ -2009,25 +2282,25 @@
         <v>10</v>
       </c>
       <c r="D57">
-        <v>231</v>
+        <v>1374</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="G57">
-        <v>2.12</v>
+        <v>2.65</v>
       </c>
       <c r="H57">
-        <v>2.1234701359999999</v>
+        <v>2.6513346040000001</v>
       </c>
       <c r="M57" t="s">
         <v>2</v>
       </c>
       <c r="S57" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T57" t="s">
         <v>13</v>
@@ -2041,25 +2314,34 @@
         <v>840</v>
       </c>
       <c r="B58" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D58">
-        <v>1371</v>
+        <v>1510</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F58">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="G58">
-        <v>2.0985</v>
+        <v>6.54</v>
+      </c>
+      <c r="H58">
+        <v>6.5402519589999999</v>
       </c>
       <c r="M58" t="s">
         <v>2</v>
       </c>
+      <c r="S58" t="s">
+        <v>17</v>
+      </c>
       <c r="T58" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="U58" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -2070,16 +2352,16 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="G59">
-        <v>2.4142000000000001</v>
+        <v>4.9786000000000001</v>
       </c>
       <c r="M59" t="s">
         <v>2</v>
@@ -2096,16 +2378,16 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="G60">
-        <v>0.32869999999999999</v>
+        <v>2.6513</v>
       </c>
       <c r="M60" t="s">
         <v>2</v>
@@ -2122,16 +2404,16 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1443</v>
+        <v>1376</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="G61">
-        <v>1.4567000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="M61" t="s">
         <v>2</v>
@@ -2148,16 +2430,16 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1510</v>
+        <v>1443</v>
       </c>
       <c r="E62" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F62">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="G62">
-        <v>7.7031999999999998</v>
+        <v>1.8474999999999999</v>
       </c>
       <c r="M62" t="s">
         <v>2</v>
@@ -2174,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1701</v>
+        <v>1510</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="G63">
-        <v>4.9000000000000002E-2</v>
+        <v>6.5403000000000002</v>
       </c>
       <c r="M63" t="s">
         <v>2</v>
@@ -2200,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>231</v>
+        <v>1701</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="G64">
-        <v>2.1223000000000001</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="M64" t="s">
         <v>2</v>
@@ -2223,34 +2505,25 @@
         <v>840</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>1371</v>
+        <v>231</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F65">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G65">
-        <v>4.7</v>
-      </c>
-      <c r="H65">
-        <v>4.6997003939999997</v>
+        <v>2.0388999999999999</v>
       </c>
       <c r="M65" t="s">
         <v>2</v>
       </c>
-      <c r="S65" t="s">
-        <v>21</v>
-      </c>
       <c r="T65" t="s">
-        <v>22</v>
-      </c>
-      <c r="U65" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -2261,25 +2534,25 @@
         <v>10</v>
       </c>
       <c r="D66">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F66">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G66">
-        <v>9.7200000000000006</v>
+        <v>3</v>
       </c>
       <c r="H66">
-        <v>9.7230073489999995</v>
+        <v>2.999535533</v>
       </c>
       <c r="M66" t="s">
         <v>2</v>
       </c>
       <c r="S66" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="T66" t="s">
         <v>13</v>
@@ -2302,22 +2575,22 @@
         <v>14</v>
       </c>
       <c r="F67">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G67">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="H67">
-        <v>2.148106275</v>
+        <v>2.0432853880000001</v>
       </c>
       <c r="M67" t="s">
         <v>2</v>
       </c>
       <c r="S67" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="T67" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="U67" t="s">
         <v>13</v>
@@ -2337,19 +2610,19 @@
         <v>16</v>
       </c>
       <c r="F68">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G68">
-        <v>6.76</v>
+        <v>6.77</v>
       </c>
       <c r="H68">
-        <v>6.7562339619999996</v>
+        <v>6.7737803679999997</v>
       </c>
       <c r="M68" t="s">
         <v>2</v>
       </c>
       <c r="S68" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="T68" t="s">
         <v>13</v>
@@ -2363,34 +2636,25 @@
         <v>840</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>1510</v>
+        <v>1371</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F69">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G69">
-        <v>7.7</v>
-      </c>
-      <c r="H69">
-        <v>7.6988635710000004</v>
+        <v>2.9994999999999998</v>
       </c>
       <c r="M69" t="s">
         <v>2</v>
       </c>
-      <c r="S69" t="s">
-        <v>26</v>
-      </c>
       <c r="T69" t="s">
-        <v>13</v>
-      </c>
-      <c r="U69" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -2398,34 +2662,25 @@
         <v>840</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>231</v>
+        <v>1374</v>
       </c>
       <c r="E70" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F70">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G70">
-        <v>2.13</v>
-      </c>
-      <c r="H70">
-        <v>2.1297604990000001</v>
+        <v>2.0432999999999999</v>
       </c>
       <c r="M70" t="s">
         <v>2</v>
       </c>
-      <c r="S70" t="s">
-        <v>20</v>
-      </c>
       <c r="T70" t="s">
-        <v>13</v>
-      </c>
-      <c r="U70" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -2436,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1371</v>
+        <v>1376</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F71">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G71">
-        <v>1.9124000000000001</v>
+        <v>0.30549999999999999</v>
       </c>
       <c r="M71" t="s">
         <v>2</v>
@@ -2462,16 +2717,16 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1374</v>
+        <v>1443</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F72">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G72">
-        <v>2.1480999999999999</v>
+        <v>1.8958999999999999</v>
       </c>
       <c r="M72" t="s">
         <v>2</v>
@@ -2488,16 +2743,16 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1376</v>
+        <v>1510</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G73">
-        <v>0.3831</v>
+        <v>6.7737999999999996</v>
       </c>
       <c r="M73" t="s">
         <v>2</v>
@@ -2514,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1443</v>
+        <v>1701</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F74">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G74">
-        <v>1.4339999999999999</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="M74" t="s">
         <v>2</v>
@@ -2540,16 +2795,16 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1510</v>
+        <v>231</v>
       </c>
       <c r="E75" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F75">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G75">
-        <v>6.7561999999999998</v>
+        <v>2.0234999999999999</v>
       </c>
       <c r="M75" t="s">
         <v>2</v>
@@ -2566,16 +2821,16 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>1701</v>
+        <v>1371</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F76">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G76">
-        <v>3.6400000000000002E-2</v>
+        <v>3.9236</v>
       </c>
       <c r="M76" t="s">
         <v>2</v>
@@ -2592,16 +2847,16 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>231</v>
+        <v>1374</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F77">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G77">
-        <v>2.1288999999999998</v>
+        <v>3.5546000000000002</v>
       </c>
       <c r="M77" t="s">
         <v>2</v>
@@ -2615,34 +2870,25 @@
         <v>840</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>1371</v>
+        <v>1376</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F78">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G78">
-        <v>4.84</v>
-      </c>
-      <c r="H78">
-        <v>4.8425911639999999</v>
+        <v>0.31359999999999999</v>
       </c>
       <c r="M78" t="s">
         <v>2</v>
       </c>
-      <c r="S78" t="s">
-        <v>21</v>
-      </c>
       <c r="T78" t="s">
-        <v>22</v>
-      </c>
-      <c r="U78" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -2650,34 +2896,25 @@
         <v>840</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>1374</v>
+        <v>1443</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F79">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G79">
-        <v>3.83</v>
-      </c>
-      <c r="H79">
-        <v>3.8298819860000002</v>
+        <v>1.6701999999999999</v>
       </c>
       <c r="M79" t="s">
         <v>2</v>
       </c>
-      <c r="S79" t="s">
-        <v>23</v>
-      </c>
       <c r="T79" t="s">
-        <v>13</v>
-      </c>
-      <c r="U79" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -2685,34 +2922,25 @@
         <v>840</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>1443</v>
+        <v>1510</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G80">
-        <v>2.75</v>
-      </c>
-      <c r="H80">
-        <v>2.7522430779999998</v>
+        <v>6.742</v>
       </c>
       <c r="M80" t="s">
         <v>2</v>
       </c>
-      <c r="S80" t="s">
-        <v>28</v>
-      </c>
       <c r="T80" t="s">
-        <v>13</v>
-      </c>
-      <c r="U80" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -2720,34 +2948,25 @@
         <v>840</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>1510</v>
+        <v>1701</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F81">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G81">
-        <v>7.15</v>
-      </c>
-      <c r="H81">
-        <v>7.1477100729999998</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="M81" t="s">
         <v>2</v>
       </c>
-      <c r="S81" t="s">
-        <v>29</v>
-      </c>
       <c r="T81" t="s">
-        <v>13</v>
-      </c>
-      <c r="U81" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -2755,34 +2974,25 @@
         <v>840</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>1510</v>
+        <v>231</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F82">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G82">
-        <v>7.13</v>
-      </c>
-      <c r="H82">
-        <v>7.130583777</v>
+        <v>2.0560999999999998</v>
       </c>
       <c r="M82" t="s">
         <v>2</v>
       </c>
-      <c r="S82" t="s">
-        <v>25</v>
-      </c>
       <c r="T82" t="s">
-        <v>13</v>
-      </c>
-      <c r="U82" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -2790,34 +3000,25 @@
         <v>840</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>231</v>
+        <v>1371</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F83">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G83">
-        <v>2.14</v>
-      </c>
-      <c r="H83">
-        <v>2.143095889</v>
+        <v>3.8422999999999998</v>
       </c>
       <c r="M83" t="s">
         <v>2</v>
       </c>
-      <c r="S83" t="s">
-        <v>20</v>
-      </c>
       <c r="T83" t="s">
-        <v>13</v>
-      </c>
-      <c r="U83" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -2828,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="E84" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F84">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G84">
-        <v>3.6442999999999999</v>
+        <v>4.5269000000000004</v>
       </c>
       <c r="M84" t="s">
         <v>2</v>
@@ -2854,16 +3055,16 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="E85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F85">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G85">
-        <v>3.8298999999999999</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="M85" t="s">
         <v>2</v>
@@ -2880,16 +3081,16 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1376</v>
+        <v>1443</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F86">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G86">
-        <v>0.34699999999999998</v>
+        <v>1.6326000000000001</v>
       </c>
       <c r="M86" t="s">
         <v>2</v>
@@ -2906,16 +3107,16 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1443</v>
+        <v>1510</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G87">
-        <v>2.7522000000000002</v>
+        <v>8.2225000000000001</v>
       </c>
       <c r="M87" t="s">
         <v>2</v>
@@ -2932,16 +3133,16 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1510</v>
+        <v>1701</v>
       </c>
       <c r="E88" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F88">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G88">
-        <v>7.1306000000000003</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="M88" t="s">
         <v>2</v>
@@ -2958,16 +3159,16 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1701</v>
+        <v>231</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F89">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G89">
-        <v>5.62E-2</v>
+        <v>2.0821999999999998</v>
       </c>
       <c r="M89" t="s">
         <v>2</v>
@@ -2981,25 +3182,34 @@
         <v>840</v>
       </c>
       <c r="B90" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>231</v>
+        <v>1374</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F90">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="G90">
-        <v>2.1377000000000002</v>
+        <v>0.06</v>
+      </c>
+      <c r="H90">
+        <v>5.8173357000000002E-2</v>
       </c>
       <c r="M90" t="s">
         <v>2</v>
       </c>
+      <c r="S90" t="s">
+        <v>18</v>
+      </c>
       <c r="T90" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="U90" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -3010,28 +3220,28 @@
         <v>10</v>
       </c>
       <c r="D91">
-        <v>1371</v>
+        <v>231</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F91">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="G91">
-        <v>4.62</v>
+        <v>2.12</v>
       </c>
       <c r="H91">
-        <v>4.615384615</v>
+        <v>2.1234701359999999</v>
       </c>
       <c r="M91" t="s">
         <v>2</v>
       </c>
       <c r="S91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T91" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="U91" t="s">
         <v>13</v>
@@ -3042,34 +3252,25 @@
         <v>840</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F92">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="G92">
-        <v>3.53</v>
-      </c>
-      <c r="H92">
-        <v>3.5276825089999999</v>
+        <v>2.0985</v>
       </c>
       <c r="M92" t="s">
         <v>2</v>
       </c>
-      <c r="S92" t="s">
-        <v>23</v>
-      </c>
       <c r="T92" t="s">
-        <v>13</v>
-      </c>
-      <c r="U92" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -3077,34 +3278,25 @@
         <v>840</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>1510</v>
+        <v>1374</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F93">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="G93">
-        <v>8.51</v>
-      </c>
-      <c r="H93">
-        <v>8.5073540940000001</v>
+        <v>2.4142000000000001</v>
       </c>
       <c r="M93" t="s">
         <v>2</v>
       </c>
-      <c r="S93" t="s">
-        <v>25</v>
-      </c>
       <c r="T93" t="s">
-        <v>13</v>
-      </c>
-      <c r="U93" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -3112,34 +3304,25 @@
         <v>840</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1510</v>
+        <v>1376</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F94">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="G94">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="H94">
-        <v>8.5258138120000009</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="M94" t="s">
         <v>2</v>
       </c>
-      <c r="S94" t="s">
-        <v>26</v>
-      </c>
       <c r="T94" t="s">
-        <v>13</v>
-      </c>
-      <c r="U94" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -3150,16 +3333,16 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1371</v>
+        <v>1443</v>
       </c>
       <c r="E95" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F95">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="G95">
-        <v>3.6772999999999998</v>
+        <v>1.4567000000000001</v>
       </c>
       <c r="M95" t="s">
         <v>2</v>
@@ -3176,151 +3359,1179 @@
         <v>0</v>
       </c>
       <c r="D96">
+        <v>1510</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>2010</v>
+      </c>
+      <c r="G96">
+        <v>7.7031999999999998</v>
+      </c>
+      <c r="M96" t="s">
+        <v>2</v>
+      </c>
+      <c r="T96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
+      <c r="A97">
+        <v>840</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>1701</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>2010</v>
+      </c>
+      <c r="G97">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M97" t="s">
+        <v>2</v>
+      </c>
+      <c r="T97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="A98">
+        <v>840</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>231</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98">
+        <v>2010</v>
+      </c>
+      <c r="G98">
+        <v>2.1223000000000001</v>
+      </c>
+      <c r="M98" t="s">
+        <v>2</v>
+      </c>
+      <c r="T98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="A99">
+        <v>840</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>1371</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99">
+        <v>2010</v>
+      </c>
+      <c r="G99">
+        <v>4.7</v>
+      </c>
+      <c r="H99">
+        <v>4.6997003939999997</v>
+      </c>
+      <c r="M99" t="s">
+        <v>2</v>
+      </c>
+      <c r="S99" t="s">
+        <v>21</v>
+      </c>
+      <c r="T99" t="s">
+        <v>22</v>
+      </c>
+      <c r="U99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="A100">
+        <v>840</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100">
         <v>1374</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>2010</v>
+      </c>
+      <c r="G100">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="H100">
+        <v>9.7230073489999995</v>
+      </c>
+      <c r="M100" t="s">
+        <v>2</v>
+      </c>
+      <c r="S100" t="s">
+        <v>23</v>
+      </c>
+      <c r="T100" t="s">
+        <v>13</v>
+      </c>
+      <c r="U100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="A101">
+        <v>840</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>1374</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>2010</v>
+      </c>
+      <c r="G101">
+        <v>2.15</v>
+      </c>
+      <c r="H101">
+        <v>2.148106275</v>
+      </c>
+      <c r="M101" t="s">
+        <v>2</v>
+      </c>
+      <c r="S101" t="s">
+        <v>24</v>
+      </c>
+      <c r="T101" t="s">
+        <v>22</v>
+      </c>
+      <c r="U101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
+      <c r="A102">
+        <v>840</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>1510</v>
+      </c>
+      <c r="E102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102">
+        <v>2010</v>
+      </c>
+      <c r="G102">
+        <v>6.76</v>
+      </c>
+      <c r="H102">
+        <v>6.7562339619999996</v>
+      </c>
+      <c r="M102" t="s">
+        <v>2</v>
+      </c>
+      <c r="S102" t="s">
+        <v>25</v>
+      </c>
+      <c r="T102" t="s">
+        <v>13</v>
+      </c>
+      <c r="U102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103">
+        <v>840</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>1510</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103">
+        <v>2010</v>
+      </c>
+      <c r="G103">
+        <v>7.7</v>
+      </c>
+      <c r="H103">
+        <v>7.6988635710000004</v>
+      </c>
+      <c r="M103" t="s">
+        <v>2</v>
+      </c>
+      <c r="S103" t="s">
+        <v>26</v>
+      </c>
+      <c r="T103" t="s">
+        <v>13</v>
+      </c>
+      <c r="U103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
+      <c r="A104">
+        <v>840</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>231</v>
+      </c>
+      <c r="E104" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104">
+        <v>2010</v>
+      </c>
+      <c r="G104">
+        <v>2.13</v>
+      </c>
+      <c r="H104">
+        <v>2.1297604990000001</v>
+      </c>
+      <c r="M104" t="s">
+        <v>2</v>
+      </c>
+      <c r="S104" t="s">
+        <v>20</v>
+      </c>
+      <c r="T104" t="s">
+        <v>13</v>
+      </c>
+      <c r="U104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
+      <c r="A105">
+        <v>840</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>1371</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>2010</v>
+      </c>
+      <c r="G105">
+        <v>1.9124000000000001</v>
+      </c>
+      <c r="M105" t="s">
+        <v>2</v>
+      </c>
+      <c r="T105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
+      <c r="A106">
+        <v>840</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>1374</v>
+      </c>
+      <c r="E106" t="s">
         <v>5</v>
       </c>
-      <c r="F96">
-        <v>2000</v>
-      </c>
-      <c r="G96">
+      <c r="F106">
+        <v>2010</v>
+      </c>
+      <c r="G106">
+        <v>2.1480999999999999</v>
+      </c>
+      <c r="M106" t="s">
+        <v>2</v>
+      </c>
+      <c r="T106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
+      <c r="A107">
+        <v>840</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>1376</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107">
+        <v>2010</v>
+      </c>
+      <c r="G107">
+        <v>0.3831</v>
+      </c>
+      <c r="M107" t="s">
+        <v>2</v>
+      </c>
+      <c r="T107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21">
+      <c r="A108">
+        <v>840</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>1443</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108">
+        <v>2010</v>
+      </c>
+      <c r="G108">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="M108" t="s">
+        <v>2</v>
+      </c>
+      <c r="T108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
+      <c r="A109">
+        <v>840</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>1510</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>2010</v>
+      </c>
+      <c r="G109">
+        <v>6.7561999999999998</v>
+      </c>
+      <c r="M109" t="s">
+        <v>2</v>
+      </c>
+      <c r="T109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
+      <c r="A110">
+        <v>840</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>1701</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110">
+        <v>2010</v>
+      </c>
+      <c r="G110">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="M110" t="s">
+        <v>2</v>
+      </c>
+      <c r="T110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
+      <c r="A111">
+        <v>840</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>231</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111">
+        <v>2010</v>
+      </c>
+      <c r="G111">
+        <v>2.1288999999999998</v>
+      </c>
+      <c r="M111" t="s">
+        <v>2</v>
+      </c>
+      <c r="T111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
+      <c r="A112">
+        <v>840</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>1371</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112">
+        <v>2010</v>
+      </c>
+      <c r="G112">
+        <v>4.84</v>
+      </c>
+      <c r="H112">
+        <v>4.8425911639999999</v>
+      </c>
+      <c r="M112" t="s">
+        <v>2</v>
+      </c>
+      <c r="S112" t="s">
+        <v>21</v>
+      </c>
+      <c r="T112" t="s">
+        <v>22</v>
+      </c>
+      <c r="U112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
+      <c r="A113">
+        <v>840</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>1374</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113">
+        <v>2010</v>
+      </c>
+      <c r="G113">
+        <v>3.83</v>
+      </c>
+      <c r="H113">
+        <v>3.8298819860000002</v>
+      </c>
+      <c r="M113" t="s">
+        <v>2</v>
+      </c>
+      <c r="S113" t="s">
+        <v>23</v>
+      </c>
+      <c r="T113" t="s">
+        <v>13</v>
+      </c>
+      <c r="U113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
+      <c r="A114">
+        <v>840</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>1443</v>
+      </c>
+      <c r="E114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114">
+        <v>2010</v>
+      </c>
+      <c r="G114">
+        <v>2.75</v>
+      </c>
+      <c r="H114">
+        <v>2.7522430779999998</v>
+      </c>
+      <c r="M114" t="s">
+        <v>2</v>
+      </c>
+      <c r="S114" t="s">
+        <v>28</v>
+      </c>
+      <c r="T114" t="s">
+        <v>13</v>
+      </c>
+      <c r="U114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
+      <c r="A115">
+        <v>840</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>1510</v>
+      </c>
+      <c r="E115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115">
+        <v>2010</v>
+      </c>
+      <c r="G115">
+        <v>7.15</v>
+      </c>
+      <c r="H115">
+        <v>7.1477100729999998</v>
+      </c>
+      <c r="M115" t="s">
+        <v>2</v>
+      </c>
+      <c r="S115" t="s">
+        <v>29</v>
+      </c>
+      <c r="T115" t="s">
+        <v>13</v>
+      </c>
+      <c r="U115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21">
+      <c r="A116">
+        <v>840</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>1510</v>
+      </c>
+      <c r="E116" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116">
+        <v>2010</v>
+      </c>
+      <c r="G116">
+        <v>7.13</v>
+      </c>
+      <c r="H116">
+        <v>7.130583777</v>
+      </c>
+      <c r="M116" t="s">
+        <v>2</v>
+      </c>
+      <c r="S116" t="s">
+        <v>25</v>
+      </c>
+      <c r="T116" t="s">
+        <v>13</v>
+      </c>
+      <c r="U116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21">
+      <c r="A117">
+        <v>840</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>231</v>
+      </c>
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117">
+        <v>2010</v>
+      </c>
+      <c r="G117">
+        <v>2.14</v>
+      </c>
+      <c r="H117">
+        <v>2.143095889</v>
+      </c>
+      <c r="M117" t="s">
+        <v>2</v>
+      </c>
+      <c r="S117" t="s">
+        <v>20</v>
+      </c>
+      <c r="T117" t="s">
+        <v>13</v>
+      </c>
+      <c r="U117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
+      <c r="A118">
+        <v>840</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>1371</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>2010</v>
+      </c>
+      <c r="G118">
+        <v>3.6442999999999999</v>
+      </c>
+      <c r="M118" t="s">
+        <v>2</v>
+      </c>
+      <c r="T118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21">
+      <c r="A119">
+        <v>840</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>1374</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119">
+        <v>2010</v>
+      </c>
+      <c r="G119">
+        <v>3.8298999999999999</v>
+      </c>
+      <c r="M119" t="s">
+        <v>2</v>
+      </c>
+      <c r="T119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
+      <c r="A120">
+        <v>840</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>1376</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120">
+        <v>2010</v>
+      </c>
+      <c r="G120">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="M120" t="s">
+        <v>2</v>
+      </c>
+      <c r="T120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
+      <c r="A121">
+        <v>840</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1443</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121">
+        <v>2010</v>
+      </c>
+      <c r="G121">
+        <v>2.7522000000000002</v>
+      </c>
+      <c r="M121" t="s">
+        <v>2</v>
+      </c>
+      <c r="T121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
+      <c r="A122">
+        <v>840</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>1510</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>2010</v>
+      </c>
+      <c r="G122">
+        <v>7.1306000000000003</v>
+      </c>
+      <c r="M122" t="s">
+        <v>2</v>
+      </c>
+      <c r="T122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
+      <c r="A123">
+        <v>840</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>1701</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123">
+        <v>2010</v>
+      </c>
+      <c r="G123">
+        <v>5.62E-2</v>
+      </c>
+      <c r="M123" t="s">
+        <v>2</v>
+      </c>
+      <c r="T123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="A124">
+        <v>840</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>231</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124">
+        <v>2010</v>
+      </c>
+      <c r="G124">
+        <v>2.1377000000000002</v>
+      </c>
+      <c r="M124" t="s">
+        <v>2</v>
+      </c>
+      <c r="T124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125">
+        <v>840</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>1371</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125">
+        <v>2010</v>
+      </c>
+      <c r="G125">
+        <v>4.62</v>
+      </c>
+      <c r="H125">
+        <v>4.615384615</v>
+      </c>
+      <c r="M125" t="s">
+        <v>2</v>
+      </c>
+      <c r="S125" t="s">
+        <v>21</v>
+      </c>
+      <c r="T125" t="s">
+        <v>22</v>
+      </c>
+      <c r="U125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="A126">
+        <v>840</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126">
+        <v>1374</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126">
+        <v>2010</v>
+      </c>
+      <c r="G126">
+        <v>3.53</v>
+      </c>
+      <c r="H126">
+        <v>3.5276825089999999</v>
+      </c>
+      <c r="M126" t="s">
+        <v>2</v>
+      </c>
+      <c r="S126" t="s">
+        <v>23</v>
+      </c>
+      <c r="T126" t="s">
+        <v>13</v>
+      </c>
+      <c r="U126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
+      <c r="A127">
+        <v>840</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127">
+        <v>1510</v>
+      </c>
+      <c r="E127" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127">
+        <v>2010</v>
+      </c>
+      <c r="G127">
+        <v>8.51</v>
+      </c>
+      <c r="H127">
+        <v>8.5073540940000001</v>
+      </c>
+      <c r="M127" t="s">
+        <v>2</v>
+      </c>
+      <c r="S127" t="s">
+        <v>25</v>
+      </c>
+      <c r="T127" t="s">
+        <v>13</v>
+      </c>
+      <c r="U127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="A128">
+        <v>840</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>1510</v>
+      </c>
+      <c r="E128" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128">
+        <v>2010</v>
+      </c>
+      <c r="G128">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="H128">
+        <v>8.5258138120000009</v>
+      </c>
+      <c r="M128" t="s">
+        <v>2</v>
+      </c>
+      <c r="S128" t="s">
+        <v>26</v>
+      </c>
+      <c r="T128" t="s">
+        <v>13</v>
+      </c>
+      <c r="U128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
+      <c r="A129">
+        <v>840</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>1371</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129">
+        <v>2010</v>
+      </c>
+      <c r="G129">
+        <v>3.6772999999999998</v>
+      </c>
+      <c r="M129" t="s">
+        <v>2</v>
+      </c>
+      <c r="T129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20">
+      <c r="A130">
+        <v>840</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>1374</v>
+      </c>
+      <c r="E130" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130">
+        <v>2010</v>
+      </c>
+      <c r="G130">
         <v>3.5276999999999998</v>
       </c>
-      <c r="M96" t="s">
-        <v>2</v>
-      </c>
-      <c r="T96" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20">
-      <c r="A97">
-        <v>840</v>
-      </c>
-      <c r="B97" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97">
+      <c r="M130" t="s">
+        <v>2</v>
+      </c>
+      <c r="T130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20">
+      <c r="A131">
+        <v>840</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131">
         <v>1376</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E131" t="s">
         <v>6</v>
       </c>
-      <c r="F97">
-        <v>2000</v>
-      </c>
-      <c r="G97">
+      <c r="F131">
+        <v>2010</v>
+      </c>
+      <c r="G131">
         <v>0.44740000000000002</v>
       </c>
-      <c r="M97" t="s">
-        <v>2</v>
-      </c>
-      <c r="T97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20">
-      <c r="A98">
-        <v>840</v>
-      </c>
-      <c r="B98" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98">
+      <c r="M131" t="s">
+        <v>2</v>
+      </c>
+      <c r="T131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20">
+      <c r="A132">
+        <v>840</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132">
         <v>1443</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E132" t="s">
         <v>7</v>
       </c>
-      <c r="F98">
-        <v>2000</v>
-      </c>
-      <c r="G98">
+      <c r="F132">
+        <v>2010</v>
+      </c>
+      <c r="G132">
         <v>2.7502</v>
       </c>
-      <c r="M98" t="s">
-        <v>2</v>
-      </c>
-      <c r="T98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20">
-      <c r="A99">
-        <v>840</v>
-      </c>
-      <c r="B99" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99">
+      <c r="M132" t="s">
+        <v>2</v>
+      </c>
+      <c r="T132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20">
+      <c r="A133">
+        <v>840</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133">
         <v>1510</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E133" t="s">
         <v>1</v>
       </c>
-      <c r="F99">
-        <v>2000</v>
-      </c>
-      <c r="G99">
+      <c r="F133">
+        <v>2010</v>
+      </c>
+      <c r="G133">
         <v>8.5074000000000005</v>
       </c>
-      <c r="M99" t="s">
-        <v>2</v>
-      </c>
-      <c r="T99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20">
-      <c r="A100">
-        <v>840</v>
-      </c>
-      <c r="B100" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100">
+      <c r="M133" t="s">
+        <v>2</v>
+      </c>
+      <c r="T133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
+      <c r="A134">
+        <v>840</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134">
         <v>1701</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E134" t="s">
         <v>8</v>
       </c>
-      <c r="F100">
-        <v>2000</v>
-      </c>
-      <c r="G100">
+      <c r="F134">
+        <v>2010</v>
+      </c>
+      <c r="G134">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="M100" t="s">
-        <v>2</v>
-      </c>
-      <c r="T100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20">
-      <c r="A101">
-        <v>840</v>
-      </c>
-      <c r="B101" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101">
+      <c r="M134" t="s">
+        <v>2</v>
+      </c>
+      <c r="T134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
+      <c r="A135">
+        <v>840</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135">
         <v>231</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E135" t="s">
         <v>9</v>
       </c>
-      <c r="F101">
-        <v>2000</v>
-      </c>
-      <c r="G101">
+      <c r="F135">
+        <v>2010</v>
+      </c>
+      <c r="G135">
         <v>2.1526999999999998</v>
       </c>
-      <c r="M101" t="s">
-        <v>2</v>
-      </c>
-      <c r="T101" t="s">
+      <c r="M135" t="s">
+        <v>2</v>
+      </c>
+      <c r="T135" t="s">
         <v>3</v>
       </c>
     </row>
